--- a/data/trans_camb/P35-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P35-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>11.48460322931783</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10.51090748657964</v>
+        <v>10.51090748657963</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>12.1201116387723</v>
@@ -655,7 +655,7 @@
         <v>16.52589440898531</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>15.74464385903238</v>
+        <v>15.74464385903239</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>10.5727565265388</v>
@@ -664,7 +664,7 @@
         <v>14.38304935311043</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>13.6378304588432</v>
+        <v>13.63783045884321</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.053690424113594</v>
+        <v>4.191205371808366</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.723633320593321</v>
+        <v>6.715393684516849</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.539739951100805</v>
+        <v>5.736184033206962</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8.538989487469744</v>
+        <v>8.311097266369737</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>12.3413644211894</v>
+        <v>12.57544502999213</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>11.85699358560283</v>
+        <v>11.9745744845678</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.408726811554568</v>
+        <v>7.773902824239255</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>11.41601025237881</v>
+        <v>11.37407411287816</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>10.33879539714404</v>
+        <v>10.55254180892737</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.79831388152353</v>
+        <v>12.46899829165386</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.05792310300883</v>
+        <v>16.0171388694441</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.21683981608745</v>
+        <v>15.59479183838285</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.07895654747195</v>
+        <v>15.98392980895664</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>21.25625215192149</v>
+        <v>20.61004248392688</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>19.50723399116994</v>
+        <v>19.5523418226261</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>13.2741303039992</v>
+        <v>13.40752063206099</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>17.6525269546504</v>
+        <v>17.60206911962081</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>16.45030905551953</v>
+        <v>16.47908442840534</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.3752803340950433</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.3434630517435822</v>
+        <v>0.343463051743582</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.3684025908315331</v>
@@ -760,7 +760,7 @@
         <v>0.5023206466681716</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4785737757424535</v>
+        <v>0.4785737757424539</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.331521815505686</v>
@@ -769,7 +769,7 @@
         <v>0.4509982445998923</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.4276309874275103</v>
+        <v>0.4276309874275107</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1256169183800343</v>
+        <v>0.1281325712381182</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.204026109981344</v>
+        <v>0.2033498430917365</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1687799054643445</v>
+        <v>0.1765151396268275</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2465959629661364</v>
+        <v>0.2376265804206946</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3550926898686875</v>
+        <v>0.3580664686198626</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3411566262812832</v>
+        <v>0.3371730052960881</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2253978385658786</v>
+        <v>0.2356950369652573</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3416336616024273</v>
+        <v>0.3441662222743747</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3105601535885567</v>
+        <v>0.3179832774950979</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4447970185367416</v>
+        <v>0.4319651620900414</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5596377681120065</v>
+        <v>0.552726179897515</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5141333577907546</v>
+        <v>0.5489779390521916</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5175180596878672</v>
+        <v>0.5184242220028504</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6902123521074994</v>
+        <v>0.6613810459391777</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6280940235659935</v>
+        <v>0.6227903879941016</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4383735219353818</v>
+        <v>0.4447667084117203</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5794576307102071</v>
+        <v>0.5716672299958709</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.541179161154513</v>
+        <v>0.5429742555797905</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>14.74932790291347</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>22.33571813238954</v>
+        <v>22.33571813238953</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>11.6395461057159</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.658538894986182</v>
+        <v>7.756538459519848</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>10.49055992189306</v>
+        <v>10.59925323971145</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19.43200366711335</v>
+        <v>19.70479460549633</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10.36692578761952</v>
+        <v>10.19065344208254</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>11.82553618313147</v>
+        <v>11.88411364355666</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>19.62551803217832</v>
+        <v>19.65951140005796</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>9.823359958504382</v>
+        <v>9.781278100481932</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>12.11589509441538</v>
+        <v>12.18920194195533</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>20.6758209349131</v>
+        <v>20.62378574669336</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.72961748141868</v>
+        <v>12.72239461144166</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.19630324976016</v>
+        <v>15.61327731650795</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>25.241456159353</v>
+        <v>25.19544685833163</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16.17361719906724</v>
+        <v>16.1454532171674</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>17.64110615797369</v>
+        <v>17.77169466749005</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>24.85706310902514</v>
+        <v>25.13985711351925</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>13.64194267618102</v>
+        <v>13.43466246371029</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>15.8414908058652</v>
+        <v>15.78469734318019</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>24.33747402768384</v>
+        <v>24.43463053676176</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>1.001350706762405</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>1.516400427540575</v>
+        <v>1.516400427540574</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.9079560583234932</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.6311626795667344</v>
+        <v>0.632269707764572</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.8428666344365578</v>
+        <v>0.8656670899009115</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1.592888105060158</v>
+        <v>1.593443855303359</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.6412742616822726</v>
+        <v>0.6283579727597592</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7195355618180501</v>
+        <v>0.7240371803047025</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.194118439508979</v>
+        <v>1.212654479730549</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7044069123108853</v>
+        <v>0.7211217692409102</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.8815777706879894</v>
+        <v>0.8970101525833795</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1.481746487333999</v>
+        <v>1.479746017127511</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.278181392274546</v>
+        <v>1.271603180683009</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.518799519013143</v>
+        <v>1.563268142154126</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.527443260530251</v>
+        <v>2.519338521114142</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.244335499794705</v>
+        <v>1.227745001657009</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.32417401480424</v>
+        <v>1.35193812935425</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.892858685618378</v>
+        <v>1.910195941212516</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.147024727711888</v>
+        <v>1.141925456673589</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.347130350856173</v>
+        <v>1.328780700330531</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.043987928763646</v>
+        <v>2.036198128797623</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6336771076172707</v>
+        <v>0.5460718827594545</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.684965757009479</v>
+        <v>5.998874201088552</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15.09296899433838</v>
+        <v>14.99545227383155</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9.433185784198328</v>
+        <v>9.665872029356992</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>9.78544712477159</v>
+        <v>9.631401664714453</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>10.14704325071466</v>
+        <v>10.96936668716758</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>6.491135519765083</v>
+        <v>6.515065766538227</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>9.143790250926491</v>
+        <v>9.191855288175416</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>14.0724252560101</v>
+        <v>14.26103750456916</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.8170697464002</v>
+        <v>11.11802849480316</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.6381139385423</v>
+        <v>15.72155512649876</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24.47789837803191</v>
+        <v>24.44698045226857</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20.79168465646851</v>
+        <v>20.28174791161651</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>19.74578722025381</v>
+        <v>19.80576313662643</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>19.46300864626641</v>
+        <v>19.79841791773949</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>13.77997072711892</v>
+        <v>13.50855837660259</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>16.15969882536841</v>
+        <v>16.52809034784491</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>20.49254918453532</v>
+        <v>20.90356290829048</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.03270867262565191</v>
+        <v>0.03361804267382538</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.3646285029089931</v>
+        <v>0.3856159848368132</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.9763095277812217</v>
+        <v>0.9379672769819961</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.6408426414036942</v>
+        <v>0.6427814896016751</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.621480034986529</v>
+        <v>0.6091550958697658</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6385183262603678</v>
+        <v>0.7079478261988134</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4219916719051323</v>
+        <v>0.4416123944140863</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.6191229136359637</v>
+        <v>0.6376524079341654</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.9612533774845483</v>
+        <v>0.9461895622681379</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.01829340411274</v>
+        <v>1.048046922865721</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.510834395435362</v>
+        <v>1.509131470336387</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.25717221132006</v>
+        <v>2.300115062612921</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.014553547193194</v>
+        <v>1.916492835414789</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.904459933812584</v>
+        <v>1.93509498932135</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.901694096680404</v>
+        <v>1.961761817121263</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.183174196332376</v>
+        <v>1.20318132548519</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.42042060020458</v>
+        <v>1.461198020110239</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.851990024555318</v>
+        <v>1.87111587046213</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>10.49874210923095</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16.94062234684318</v>
+        <v>16.94062234684319</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>12.84590801185639</v>
@@ -1297,7 +1297,7 @@
         <v>13.28463421077637</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>16.2990464509984</v>
+        <v>16.29904645099841</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>10.72036312219322</v>
@@ -1306,7 +1306,7 @@
         <v>11.94759182150265</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>16.64191313090365</v>
+        <v>16.64191313090364</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.311924272548955</v>
+        <v>6.59828750990594</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.33443868168164</v>
+        <v>8.486284080102147</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>14.74757987618291</v>
+        <v>14.79428327228579</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10.55405097720111</v>
+        <v>10.50472963130474</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>10.96945563281551</v>
+        <v>10.989434929514</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>14.46989307888918</v>
+        <v>14.32539352864184</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>9.218056058910969</v>
+        <v>9.237294155934238</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>10.3875622978781</v>
+        <v>10.5088000827032</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>15.10580481571468</v>
+        <v>15.19747037055101</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.70190655168796</v>
+        <v>10.45470921722212</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.64040862496807</v>
+        <v>12.44878467028934</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>19.13815576319445</v>
+        <v>19.06849877709493</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14.97402525658334</v>
+        <v>15.00231740111547</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>15.37641192754946</v>
+        <v>15.41019231218903</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>18.3600042646523</v>
+        <v>18.26614067459794</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>12.25951185625071</v>
+        <v>12.34637556877926</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>13.34330915294401</v>
+        <v>13.56275583890186</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>18.07407629892852</v>
+        <v>18.27135536526049</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.5998653428796147</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.9679342655486508</v>
+        <v>0.9679342655486514</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.5958608788403579</v>
@@ -1402,7 +1402,7 @@
         <v>0.6162113109170524</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7560356289012709</v>
+        <v>0.7560356289012712</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.5481858670400278</v>
@@ -1411,7 +1411,7 @@
         <v>0.61094021788796</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.8509843813017078</v>
+        <v>0.8509843813017075</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.3428534021389466</v>
+        <v>0.3561147719891392</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.4445505825596118</v>
+        <v>0.4556025070310539</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.7944643756668474</v>
+        <v>0.8021541105539445</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.4707694413058053</v>
+        <v>0.4667904170795522</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4857615139590167</v>
+        <v>0.4843895963861509</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6378677618587167</v>
+        <v>0.6315348905892868</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.458549236200706</v>
+        <v>0.4566423429265428</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.5100335302451893</v>
+        <v>0.5197357601141049</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.7382397148842192</v>
+        <v>0.7453376963015126</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6500468545739783</v>
+        <v>0.6325594202107143</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7641489448320496</v>
+        <v>0.755803685243754</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.160438469656015</v>
+        <v>1.154581856554225</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7361094388883092</v>
+        <v>0.7430101461146299</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7427989869454052</v>
+        <v>0.7509479037628812</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8950421783596935</v>
+        <v>0.89271241086784</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6486391384736222</v>
+        <v>0.6504835891734279</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7064821598541111</v>
+        <v>0.7156992932558189</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.9563910931880064</v>
+        <v>0.9664787891859536</v>
       </c>
     </row>
     <row r="28">
